--- a/Data/NCBI_upload/SRA_metadata_SedStress_RNASeq.xlsx
+++ b/Data/NCBI_upload/SRA_metadata_SedStress_RNASeq.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jillashey/Desktop/PutnamLab/Repositories/SedimentStress/SedimentStress/Data/NCBI_upload/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B271BD85-41E2-DB48-A58F-702FB124E9C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C11E9E5C-B37D-B944-B632-76E0C7C76A8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="5660" windowWidth="35840" windowHeight="15420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15260" yWindow="10700" windowWidth="20580" windowHeight="10380" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SRA_data" sheetId="7" r:id="rId1"/>
@@ -254,7 +254,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1029" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1121" uniqueCount="302">
   <si>
     <t>filename</t>
   </si>
@@ -311,6 +311,9 @@
   </si>
   <si>
     <t>biosample_accession</t>
+  </si>
+  <si>
+    <t>Illumina NovaSeq 6000</t>
   </si>
   <si>
     <t>assembly</t>
@@ -1935,9 +1938,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q286"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="L11" sqref="L11"/>
+    <sheetView tabSelected="1" zoomScale="116" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="G1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1950,7 +1953,7 @@
     <col min="6" max="6" width="28.83203125" style="10" customWidth="1"/>
     <col min="7" max="7" width="12.1640625" style="10" customWidth="1"/>
     <col min="8" max="8" width="23.1640625" style="10" customWidth="1"/>
-    <col min="9" max="9" width="16" style="10" customWidth="1"/>
+    <col min="9" max="9" width="22.83203125" style="10" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16.6640625" style="10" customWidth="1"/>
     <col min="11" max="11" width="11.33203125" style="10" customWidth="1"/>
     <col min="12" max="12" width="49.83203125" style="10" bestFit="1" customWidth="1"/>
@@ -2006,21 +2009,21 @@
         <v>17</v>
       </c>
       <c r="P1" s="13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Q1" s="13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>7</v>
@@ -2032,31 +2035,33 @@
         <v>9</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="9"/>
+      <c r="I2" s="9" t="s">
+        <v>19</v>
+      </c>
       <c r="J2" s="18" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L2" s="15" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>7</v>
@@ -2068,31 +2073,33 @@
         <v>9</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="9"/>
+      <c r="I3" s="9" t="s">
+        <v>19</v>
+      </c>
       <c r="J3" s="18" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L3" s="15" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>7</v>
@@ -2104,31 +2111,33 @@
         <v>9</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="9"/>
+      <c r="I4" s="9" t="s">
+        <v>19</v>
+      </c>
       <c r="J4" s="18" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L4" s="15" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>7</v>
@@ -2140,31 +2149,33 @@
         <v>9</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H5" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="9"/>
+      <c r="I5" s="9" t="s">
+        <v>19</v>
+      </c>
       <c r="J5" s="18" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K5" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L5" s="15" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D6" s="9" t="s">
         <v>7</v>
@@ -2176,31 +2187,33 @@
         <v>9</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H6" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I6" s="9"/>
+      <c r="I6" s="9" t="s">
+        <v>19</v>
+      </c>
       <c r="J6" s="18" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K6" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L6" s="15" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D7" s="9" t="s">
         <v>7</v>
@@ -2212,31 +2225,33 @@
         <v>9</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H7" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I7" s="9"/>
+      <c r="I7" s="9" t="s">
+        <v>19</v>
+      </c>
       <c r="J7" s="18" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K7" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L7" s="15" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>7</v>
@@ -2248,31 +2263,33 @@
         <v>9</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H8" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I8" s="9"/>
+      <c r="I8" s="9" t="s">
+        <v>19</v>
+      </c>
       <c r="J8" s="18" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K8" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L8" s="15" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D9" s="9" t="s">
         <v>7</v>
@@ -2284,31 +2301,33 @@
         <v>9</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H9" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I9" s="9"/>
+      <c r="I9" s="9" t="s">
+        <v>19</v>
+      </c>
       <c r="J9" s="18" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K9" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L9" s="15" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>7</v>
@@ -2320,31 +2339,33 @@
         <v>9</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H10" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I10" s="9"/>
+      <c r="I10" s="9" t="s">
+        <v>19</v>
+      </c>
       <c r="J10" s="18" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K10" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L10" s="15" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="14" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D11" s="9" t="s">
         <v>7</v>
@@ -2356,31 +2377,33 @@
         <v>9</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H11" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I11" s="9"/>
+      <c r="I11" s="9" t="s">
+        <v>19</v>
+      </c>
       <c r="J11" s="18" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K11" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L11" s="15" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="14" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D12" s="9" t="s">
         <v>7</v>
@@ -2392,31 +2415,33 @@
         <v>9</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H12" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I12" s="9"/>
+      <c r="I12" s="9" t="s">
+        <v>19</v>
+      </c>
       <c r="J12" s="18" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K12" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L12" s="15" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D13" s="9" t="s">
         <v>7</v>
@@ -2428,31 +2453,33 @@
         <v>9</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H13" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I13" s="9"/>
+      <c r="I13" s="9" t="s">
+        <v>19</v>
+      </c>
       <c r="J13" s="18" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K13" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L13" s="15" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D14" s="9" t="s">
         <v>7</v>
@@ -2464,31 +2491,33 @@
         <v>9</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H14" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I14" s="9"/>
+      <c r="I14" s="9" t="s">
+        <v>19</v>
+      </c>
       <c r="J14" s="18" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K14" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L14" s="15" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" s="14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D15" s="9" t="s">
         <v>7</v>
@@ -2500,31 +2529,33 @@
         <v>9</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H15" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I15" s="9"/>
+      <c r="I15" s="9" t="s">
+        <v>19</v>
+      </c>
       <c r="J15" s="18" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K15" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L15" s="15" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" s="14" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D16" s="9" t="s">
         <v>7</v>
@@ -2536,31 +2567,33 @@
         <v>9</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H16" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I16" s="9"/>
+      <c r="I16" s="9" t="s">
+        <v>19</v>
+      </c>
       <c r="J16" s="18" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K16" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L16" s="15" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D17" s="9" t="s">
         <v>7</v>
@@ -2572,31 +2605,33 @@
         <v>9</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H17" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I17" s="9"/>
+      <c r="I17" s="9" t="s">
+        <v>19</v>
+      </c>
       <c r="J17" s="18" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K17" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L17" s="15" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D18" s="9" t="s">
         <v>7</v>
@@ -2608,31 +2643,33 @@
         <v>9</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H18" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I18" s="9"/>
+      <c r="I18" s="9" t="s">
+        <v>19</v>
+      </c>
       <c r="J18" s="18" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K18" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L18" s="15" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D19" s="9" t="s">
         <v>7</v>
@@ -2644,31 +2681,33 @@
         <v>9</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H19" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I19" s="9"/>
+      <c r="I19" s="9" t="s">
+        <v>19</v>
+      </c>
       <c r="J19" s="18" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K19" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L19" s="15" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D20" s="9" t="s">
         <v>7</v>
@@ -2680,31 +2719,33 @@
         <v>9</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H20" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I20" s="9"/>
+      <c r="I20" s="9" t="s">
+        <v>19</v>
+      </c>
       <c r="J20" s="18" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K20" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L20" s="15" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D21" s="9" t="s">
         <v>7</v>
@@ -2716,31 +2757,33 @@
         <v>9</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H21" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I21" s="9"/>
+      <c r="I21" s="9" t="s">
+        <v>19</v>
+      </c>
       <c r="J21" s="18" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K21" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L21" s="15" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D22" s="9" t="s">
         <v>7</v>
@@ -2752,31 +2795,33 @@
         <v>9</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H22" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I22" s="9"/>
+      <c r="I22" s="9" t="s">
+        <v>19</v>
+      </c>
       <c r="J22" s="18" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K22" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L22" s="15" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D23" s="9" t="s">
         <v>7</v>
@@ -2788,31 +2833,33 @@
         <v>9</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H23" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I23" s="9"/>
+      <c r="I23" s="9" t="s">
+        <v>19</v>
+      </c>
       <c r="J23" s="18" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K23" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L23" s="15" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D24" s="9" t="s">
         <v>7</v>
@@ -2824,31 +2871,33 @@
         <v>9</v>
       </c>
       <c r="G24" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H24" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I24" s="9"/>
+      <c r="I24" s="9" t="s">
+        <v>19</v>
+      </c>
       <c r="J24" s="18" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K24" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L24" s="15" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D25" s="9" t="s">
         <v>7</v>
@@ -2860,31 +2909,33 @@
         <v>9</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H25" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I25" s="9"/>
+      <c r="I25" s="9" t="s">
+        <v>19</v>
+      </c>
       <c r="J25" s="18" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K25" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L25" s="15" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D26" s="9" t="s">
         <v>7</v>
@@ -2896,31 +2947,33 @@
         <v>9</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H26" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I26" s="9"/>
+      <c r="I26" s="9" t="s">
+        <v>19</v>
+      </c>
       <c r="J26" s="18" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K26" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L26" s="15" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="14" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D27" s="9" t="s">
         <v>7</v>
@@ -2932,31 +2985,33 @@
         <v>9</v>
       </c>
       <c r="G27" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H27" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I27" s="9"/>
+      <c r="I27" s="9" t="s">
+        <v>19</v>
+      </c>
       <c r="J27" s="18" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K27" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L27" s="15" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B28" s="17" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D28" s="9" t="s">
         <v>7</v>
@@ -2968,31 +3023,33 @@
         <v>9</v>
       </c>
       <c r="G28" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H28" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I28" s="9"/>
+      <c r="I28" s="9" t="s">
+        <v>19</v>
+      </c>
       <c r="J28" s="18" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K28" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L28" s="15" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B29" s="17" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D29" s="9" t="s">
         <v>7</v>
@@ -3004,31 +3061,33 @@
         <v>9</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H29" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I29" s="9"/>
+      <c r="I29" s="9" t="s">
+        <v>19</v>
+      </c>
       <c r="J29" s="18" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K29" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L29" s="15" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B30" s="17" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D30" s="9" t="s">
         <v>7</v>
@@ -3040,31 +3099,33 @@
         <v>9</v>
       </c>
       <c r="G30" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H30" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I30" s="9"/>
+      <c r="I30" s="9" t="s">
+        <v>19</v>
+      </c>
       <c r="J30" s="18" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K30" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L30" s="15" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B31" s="17" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D31" s="9" t="s">
         <v>7</v>
@@ -3076,31 +3137,33 @@
         <v>9</v>
       </c>
       <c r="G31" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H31" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I31" s="9"/>
+      <c r="I31" s="9" t="s">
+        <v>19</v>
+      </c>
       <c r="J31" s="18" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K31" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L31" s="15" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B32" s="17" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D32" s="9" t="s">
         <v>7</v>
@@ -3112,31 +3175,33 @@
         <v>9</v>
       </c>
       <c r="G32" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H32" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I32" s="9"/>
+      <c r="I32" s="9" t="s">
+        <v>19</v>
+      </c>
       <c r="J32" s="18" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K32" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L32" s="15" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" s="14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B33" s="17" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D33" s="9" t="s">
         <v>7</v>
@@ -3148,31 +3213,33 @@
         <v>9</v>
       </c>
       <c r="G33" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H33" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I33" s="9"/>
+      <c r="I33" s="9" t="s">
+        <v>19</v>
+      </c>
       <c r="J33" s="18" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K33" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L33" s="15" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" s="14" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B34" s="17" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D34" s="9" t="s">
         <v>7</v>
@@ -3184,31 +3251,33 @@
         <v>9</v>
       </c>
       <c r="G34" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H34" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I34" s="9"/>
+      <c r="I34" s="9" t="s">
+        <v>19</v>
+      </c>
       <c r="J34" s="18" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K34" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L34" s="15" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" s="14" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B35" s="17" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D35" s="9" t="s">
         <v>7</v>
@@ -3220,31 +3289,33 @@
         <v>9</v>
       </c>
       <c r="G35" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H35" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I35" s="9"/>
+      <c r="I35" s="9" t="s">
+        <v>19</v>
+      </c>
       <c r="J35" s="18" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K35" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L35" s="15" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" s="14" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B36" s="17" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D36" s="9" t="s">
         <v>7</v>
@@ -3256,31 +3327,33 @@
         <v>9</v>
       </c>
       <c r="G36" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H36" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I36" s="9"/>
+      <c r="I36" s="9" t="s">
+        <v>19</v>
+      </c>
       <c r="J36" s="18" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K36" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L36" s="15" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" s="14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B37" s="17" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D37" s="9" t="s">
         <v>7</v>
@@ -3292,31 +3365,33 @@
         <v>9</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H37" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I37" s="9"/>
+      <c r="I37" s="9" t="s">
+        <v>19</v>
+      </c>
       <c r="J37" s="18" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K37" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L37" s="15" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B38" s="17" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D38" s="9" t="s">
         <v>7</v>
@@ -3328,31 +3403,33 @@
         <v>9</v>
       </c>
       <c r="G38" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H38" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I38" s="9"/>
+      <c r="I38" s="9" t="s">
+        <v>19</v>
+      </c>
       <c r="J38" s="18" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K38" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L38" s="15" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" s="14" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B39" s="17" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D39" s="9" t="s">
         <v>7</v>
@@ -3364,31 +3441,33 @@
         <v>9</v>
       </c>
       <c r="G39" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H39" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I39" s="9"/>
+      <c r="I39" s="9" t="s">
+        <v>19</v>
+      </c>
       <c r="J39" s="18" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K39" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L39" s="15" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" s="14" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B40" s="17" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D40" s="9" t="s">
         <v>7</v>
@@ -3400,31 +3479,33 @@
         <v>9</v>
       </c>
       <c r="G40" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H40" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I40" s="9"/>
+      <c r="I40" s="9" t="s">
+        <v>19</v>
+      </c>
       <c r="J40" s="18" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K40" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L40" s="15" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" s="14" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B41" s="17" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D41" s="9" t="s">
         <v>7</v>
@@ -3436,31 +3517,33 @@
         <v>9</v>
       </c>
       <c r="G41" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H41" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I41" s="9"/>
+      <c r="I41" s="9" t="s">
+        <v>19</v>
+      </c>
       <c r="J41" s="18" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K41" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L41" s="15" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" s="14" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B42" s="17" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D42" s="9" t="s">
         <v>7</v>
@@ -3472,31 +3555,33 @@
         <v>9</v>
       </c>
       <c r="G42" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H42" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I42" s="9"/>
+      <c r="I42" s="9" t="s">
+        <v>19</v>
+      </c>
       <c r="J42" s="18" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K42" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L42" s="15" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" s="14" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B43" s="17" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D43" s="9" t="s">
         <v>7</v>
@@ -3508,31 +3593,33 @@
         <v>9</v>
       </c>
       <c r="G43" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H43" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I43" s="9"/>
+      <c r="I43" s="9" t="s">
+        <v>19</v>
+      </c>
       <c r="J43" s="18" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K43" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L43" s="15" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" s="14" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B44" s="17" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D44" s="9" t="s">
         <v>7</v>
@@ -3544,31 +3631,33 @@
         <v>9</v>
       </c>
       <c r="G44" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H44" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I44" s="9"/>
+      <c r="I44" s="9" t="s">
+        <v>19</v>
+      </c>
       <c r="J44" s="18" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K44" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L44" s="15" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" s="14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B45" s="17" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D45" s="9" t="s">
         <v>7</v>
@@ -3580,31 +3669,33 @@
         <v>9</v>
       </c>
       <c r="G45" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H45" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I45" s="9"/>
+      <c r="I45" s="9" t="s">
+        <v>19</v>
+      </c>
       <c r="J45" s="18" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K45" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L45" s="15" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" s="14" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B46" s="17" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D46" s="9" t="s">
         <v>7</v>
@@ -3616,31 +3707,33 @@
         <v>9</v>
       </c>
       <c r="G46" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H46" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I46" s="9"/>
+      <c r="I46" s="9" t="s">
+        <v>19</v>
+      </c>
       <c r="J46" s="18" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K46" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L46" s="15" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" s="14" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B47" s="17" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D47" s="9" t="s">
         <v>7</v>
@@ -3652,31 +3745,33 @@
         <v>9</v>
       </c>
       <c r="G47" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H47" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I47" s="9"/>
+      <c r="I47" s="9" t="s">
+        <v>19</v>
+      </c>
       <c r="J47" s="18" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K47" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L47" s="15" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" s="14" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B48" s="17" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D48" s="9" t="s">
         <v>7</v>
@@ -3688,31 +3783,33 @@
         <v>9</v>
       </c>
       <c r="G48" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H48" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I48" s="9"/>
+      <c r="I48" s="9" t="s">
+        <v>19</v>
+      </c>
       <c r="J48" s="18" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K48" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L48" s="15" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" s="14" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B49" s="17" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D49" s="9" t="s">
         <v>7</v>
@@ -3724,31 +3821,33 @@
         <v>9</v>
       </c>
       <c r="G49" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H49" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I49" s="9"/>
+      <c r="I49" s="9" t="s">
+        <v>19</v>
+      </c>
       <c r="J49" s="18" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K49" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L49" s="15" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" s="14" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B50" s="17" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D50" s="9" t="s">
         <v>7</v>
@@ -3760,31 +3859,33 @@
         <v>9</v>
       </c>
       <c r="G50" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H50" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I50" s="9"/>
+      <c r="I50" s="9" t="s">
+        <v>19</v>
+      </c>
       <c r="J50" s="18" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K50" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L50" s="15" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51" s="14" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B51" s="17" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D51" s="9" t="s">
         <v>7</v>
@@ -3796,31 +3897,33 @@
         <v>9</v>
       </c>
       <c r="G51" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H51" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I51" s="9"/>
+      <c r="I51" s="9" t="s">
+        <v>19</v>
+      </c>
       <c r="J51" s="18" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K51" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L51" s="15" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52" s="14" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B52" s="17" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D52" s="9" t="s">
         <v>7</v>
@@ -3832,31 +3935,33 @@
         <v>9</v>
       </c>
       <c r="G52" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H52" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I52" s="9"/>
+      <c r="I52" s="9" t="s">
+        <v>19</v>
+      </c>
       <c r="J52" s="18" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K52" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L52" s="15" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" s="14" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B53" s="17" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D53" s="9" t="s">
         <v>7</v>
@@ -3868,31 +3973,33 @@
         <v>9</v>
       </c>
       <c r="G53" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H53" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I53" s="9"/>
+      <c r="I53" s="9" t="s">
+        <v>19</v>
+      </c>
       <c r="J53" s="18" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K53" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L53" s="15" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54" s="14" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B54" s="17" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D54" s="9" t="s">
         <v>7</v>
@@ -3904,31 +4011,33 @@
         <v>9</v>
       </c>
       <c r="G54" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H54" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I54" s="9"/>
+      <c r="I54" s="9" t="s">
+        <v>19</v>
+      </c>
       <c r="J54" s="18" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K54" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L54" s="15" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A55" s="14" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B55" s="17" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D55" s="9" t="s">
         <v>7</v>
@@ -3940,31 +4049,33 @@
         <v>9</v>
       </c>
       <c r="G55" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H55" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I55" s="9"/>
+      <c r="I55" s="9" t="s">
+        <v>19</v>
+      </c>
       <c r="J55" s="18" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K55" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L55" s="15" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56" s="14" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B56" s="17" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D56" s="9" t="s">
         <v>7</v>
@@ -3976,31 +4087,33 @@
         <v>9</v>
       </c>
       <c r="G56" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H56" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I56" s="9"/>
+      <c r="I56" s="9" t="s">
+        <v>19</v>
+      </c>
       <c r="J56" s="18" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K56" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L56" s="15" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57" s="14" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B57" s="17" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D57" s="9" t="s">
         <v>7</v>
@@ -4012,31 +4125,33 @@
         <v>9</v>
       </c>
       <c r="G57" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H57" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I57" s="9"/>
+      <c r="I57" s="9" t="s">
+        <v>19</v>
+      </c>
       <c r="J57" s="18" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K57" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L57" s="15" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A58" s="14" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B58" s="17" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D58" s="9" t="s">
         <v>7</v>
@@ -4048,31 +4163,33 @@
         <v>9</v>
       </c>
       <c r="G58" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H58" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I58" s="9"/>
+      <c r="I58" s="9" t="s">
+        <v>19</v>
+      </c>
       <c r="J58" s="18" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K58" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L58" s="15" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A59" s="14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B59" s="17" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D59" s="9" t="s">
         <v>7</v>
@@ -4084,31 +4201,33 @@
         <v>9</v>
       </c>
       <c r="G59" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H59" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I59" s="9"/>
+      <c r="I59" s="9" t="s">
+        <v>19</v>
+      </c>
       <c r="J59" s="18" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K59" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L59" s="15" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A60" s="14" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B60" s="17" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D60" s="9" t="s">
         <v>7</v>
@@ -4120,31 +4239,33 @@
         <v>9</v>
       </c>
       <c r="G60" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H60" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I60" s="9"/>
+      <c r="I60" s="9" t="s">
+        <v>19</v>
+      </c>
       <c r="J60" s="18" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K60" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L60" s="15" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A61" s="14" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B61" s="17" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D61" s="9" t="s">
         <v>7</v>
@@ -4156,31 +4277,33 @@
         <v>9</v>
       </c>
       <c r="G61" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H61" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I61" s="9"/>
+      <c r="I61" s="9" t="s">
+        <v>19</v>
+      </c>
       <c r="J61" s="18" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K61" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L61" s="15" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A62" s="14" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B62" s="17" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D62" s="9" t="s">
         <v>7</v>
@@ -4192,31 +4315,33 @@
         <v>9</v>
       </c>
       <c r="G62" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H62" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I62" s="9"/>
+      <c r="I62" s="9" t="s">
+        <v>19</v>
+      </c>
       <c r="J62" s="18" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K62" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L62" s="15" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A63" s="14" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B63" s="17" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D63" s="9" t="s">
         <v>7</v>
@@ -4228,31 +4353,33 @@
         <v>9</v>
       </c>
       <c r="G63" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H63" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I63" s="9"/>
+      <c r="I63" s="9" t="s">
+        <v>19</v>
+      </c>
       <c r="J63" s="18" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K63" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L63" s="15" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A64" s="14" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B64" s="17" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D64" s="9" t="s">
         <v>7</v>
@@ -4264,31 +4391,33 @@
         <v>9</v>
       </c>
       <c r="G64" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H64" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I64" s="9"/>
+      <c r="I64" s="9" t="s">
+        <v>19</v>
+      </c>
       <c r="J64" s="18" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K64" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L64" s="15" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A65" s="14" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B65" s="17" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D65" s="9" t="s">
         <v>7</v>
@@ -4300,31 +4429,33 @@
         <v>9</v>
       </c>
       <c r="G65" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H65" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I65" s="9"/>
+      <c r="I65" s="9" t="s">
+        <v>19</v>
+      </c>
       <c r="J65" s="18" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K65" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L65" s="15" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A66" s="14" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B66" s="17" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D66" s="9" t="s">
         <v>7</v>
@@ -4336,31 +4467,33 @@
         <v>9</v>
       </c>
       <c r="G66" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H66" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I66" s="9"/>
+      <c r="I66" s="9" t="s">
+        <v>19</v>
+      </c>
       <c r="J66" s="18" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K66" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L66" s="15" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A67" s="14" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B67" s="17" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D67" s="9" t="s">
         <v>7</v>
@@ -4372,31 +4505,33 @@
         <v>9</v>
       </c>
       <c r="G67" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H67" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I67" s="9"/>
+      <c r="I67" s="9" t="s">
+        <v>19</v>
+      </c>
       <c r="J67" s="18" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K67" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L67" s="15" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A68" s="14" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B68" s="17" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D68" s="9" t="s">
         <v>7</v>
@@ -4408,31 +4543,33 @@
         <v>9</v>
       </c>
       <c r="G68" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H68" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I68" s="9"/>
+      <c r="I68" s="9" t="s">
+        <v>19</v>
+      </c>
       <c r="J68" s="18" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K68" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L68" s="15" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A69" s="14" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B69" s="17" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D69" s="9" t="s">
         <v>7</v>
@@ -4444,31 +4581,33 @@
         <v>9</v>
       </c>
       <c r="G69" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H69" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I69" s="9"/>
+      <c r="I69" s="9" t="s">
+        <v>19</v>
+      </c>
       <c r="J69" s="18" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K69" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L69" s="15" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A70" s="14" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B70" s="17" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D70" s="9" t="s">
         <v>7</v>
@@ -4480,31 +4619,33 @@
         <v>9</v>
       </c>
       <c r="G70" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H70" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I70" s="9"/>
+      <c r="I70" s="9" t="s">
+        <v>19</v>
+      </c>
       <c r="J70" s="18" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K70" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L70" s="15" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A71" s="14" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B71" s="17" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D71" s="9" t="s">
         <v>7</v>
@@ -4516,31 +4657,33 @@
         <v>9</v>
       </c>
       <c r="G71" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H71" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I71" s="9"/>
+      <c r="I71" s="9" t="s">
+        <v>19</v>
+      </c>
       <c r="J71" s="18" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K71" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L71" s="15" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A72" s="14" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B72" s="17" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D72" s="9" t="s">
         <v>7</v>
@@ -4552,31 +4695,33 @@
         <v>9</v>
       </c>
       <c r="G72" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H72" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I72" s="9"/>
+      <c r="I72" s="9" t="s">
+        <v>19</v>
+      </c>
       <c r="J72" s="18" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K72" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L72" s="15" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A73" s="14" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B73" s="17" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D73" s="9" t="s">
         <v>7</v>
@@ -4588,31 +4733,33 @@
         <v>9</v>
       </c>
       <c r="G73" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H73" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I73" s="9"/>
+      <c r="I73" s="9" t="s">
+        <v>19</v>
+      </c>
       <c r="J73" s="18" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K73" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L73" s="15" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A74" s="14" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B74" s="17" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D74" s="9" t="s">
         <v>7</v>
@@ -4624,31 +4771,33 @@
         <v>9</v>
       </c>
       <c r="G74" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H74" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I74" s="9"/>
+      <c r="I74" s="9" t="s">
+        <v>19</v>
+      </c>
       <c r="J74" s="18" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K74" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L74" s="15" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A75" s="14" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B75" s="17" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D75" s="9" t="s">
         <v>7</v>
@@ -4660,31 +4809,33 @@
         <v>9</v>
       </c>
       <c r="G75" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H75" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I75" s="9"/>
+      <c r="I75" s="9" t="s">
+        <v>19</v>
+      </c>
       <c r="J75" s="18" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K75" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L75" s="15" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A76" s="14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B76" s="17" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D76" s="9" t="s">
         <v>7</v>
@@ -4696,31 +4847,33 @@
         <v>9</v>
       </c>
       <c r="G76" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H76" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I76" s="9"/>
+      <c r="I76" s="9" t="s">
+        <v>19</v>
+      </c>
       <c r="J76" s="18" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K76" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L76" s="15" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A77" s="14" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B77" s="17" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D77" s="9" t="s">
         <v>7</v>
@@ -4732,31 +4885,33 @@
         <v>9</v>
       </c>
       <c r="G77" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H77" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I77" s="9"/>
+      <c r="I77" s="9" t="s">
+        <v>19</v>
+      </c>
       <c r="J77" s="18" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K77" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L77" s="15" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A78" s="14" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B78" s="17" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D78" s="9" t="s">
         <v>7</v>
@@ -4768,31 +4923,33 @@
         <v>9</v>
       </c>
       <c r="G78" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H78" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I78" s="9"/>
+      <c r="I78" s="9" t="s">
+        <v>19</v>
+      </c>
       <c r="J78" s="18" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K78" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L78" s="15" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A79" s="14" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B79" s="17" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D79" s="9" t="s">
         <v>7</v>
@@ -4804,31 +4961,33 @@
         <v>9</v>
       </c>
       <c r="G79" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H79" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I79" s="9"/>
+      <c r="I79" s="9" t="s">
+        <v>19</v>
+      </c>
       <c r="J79" s="18" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K79" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L79" s="15" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A80" s="14" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B80" s="17" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C80" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D80" s="9" t="s">
         <v>7</v>
@@ -4840,31 +4999,33 @@
         <v>9</v>
       </c>
       <c r="G80" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H80" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I80" s="9"/>
+      <c r="I80" s="9" t="s">
+        <v>19</v>
+      </c>
       <c r="J80" s="18" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K80" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L80" s="15" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A81" s="14" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B81" s="17" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C81" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D81" s="9" t="s">
         <v>7</v>
@@ -4876,31 +5037,33 @@
         <v>9</v>
       </c>
       <c r="G81" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H81" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I81" s="9"/>
+      <c r="I81" s="9" t="s">
+        <v>19</v>
+      </c>
       <c r="J81" s="18" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K81" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L81" s="15" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A82" s="14" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B82" s="17" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C82" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D82" s="9" t="s">
         <v>7</v>
@@ -4912,31 +5075,33 @@
         <v>9</v>
       </c>
       <c r="G82" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H82" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I82" s="9"/>
+      <c r="I82" s="9" t="s">
+        <v>19</v>
+      </c>
       <c r="J82" s="18" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K82" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L82" s="15" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A83" s="14" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B83" s="17" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D83" s="9" t="s">
         <v>7</v>
@@ -4948,31 +5113,33 @@
         <v>9</v>
       </c>
       <c r="G83" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H83" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I83" s="9"/>
+      <c r="I83" s="9" t="s">
+        <v>19</v>
+      </c>
       <c r="J83" s="18" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K83" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L83" s="15" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A84" s="14" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B84" s="17" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D84" s="9" t="s">
         <v>7</v>
@@ -4984,31 +5151,33 @@
         <v>9</v>
       </c>
       <c r="G84" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H84" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I84" s="9"/>
+      <c r="I84" s="9" t="s">
+        <v>19</v>
+      </c>
       <c r="J84" s="18" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K84" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L84" s="15" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A85" s="14" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B85" s="17" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D85" s="9" t="s">
         <v>7</v>
@@ -5020,31 +5189,33 @@
         <v>9</v>
       </c>
       <c r="G85" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H85" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I85" s="9"/>
+      <c r="I85" s="9" t="s">
+        <v>19</v>
+      </c>
       <c r="J85" s="18" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K85" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L85" s="15" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A86" s="14" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B86" s="17" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D86" s="9" t="s">
         <v>7</v>
@@ -5056,31 +5227,33 @@
         <v>9</v>
       </c>
       <c r="G86" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H86" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I86" s="9"/>
+      <c r="I86" s="9" t="s">
+        <v>19</v>
+      </c>
       <c r="J86" s="18" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K86" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L86" s="15" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A87" s="14" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B87" s="17" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C87" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D87" s="9" t="s">
         <v>7</v>
@@ -5092,31 +5265,33 @@
         <v>9</v>
       </c>
       <c r="G87" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H87" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I87" s="9"/>
+      <c r="I87" s="9" t="s">
+        <v>19</v>
+      </c>
       <c r="J87" s="18" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K87" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L87" s="15" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A88" s="14" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B88" s="17" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C88" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D88" s="9" t="s">
         <v>7</v>
@@ -5128,31 +5303,33 @@
         <v>9</v>
       </c>
       <c r="G88" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H88" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I88" s="9"/>
+      <c r="I88" s="9" t="s">
+        <v>19</v>
+      </c>
       <c r="J88" s="18" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K88" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L88" s="15" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A89" s="14" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B89" s="17" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C89" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D89" s="9" t="s">
         <v>7</v>
@@ -5164,31 +5341,33 @@
         <v>9</v>
       </c>
       <c r="G89" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H89" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I89" s="9"/>
+      <c r="I89" s="9" t="s">
+        <v>19</v>
+      </c>
       <c r="J89" s="18" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K89" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L89" s="15" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A90" s="14" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B90" s="17" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D90" s="9" t="s">
         <v>7</v>
@@ -5200,31 +5379,33 @@
         <v>9</v>
       </c>
       <c r="G90" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H90" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I90" s="9"/>
+      <c r="I90" s="9" t="s">
+        <v>19</v>
+      </c>
       <c r="J90" s="18" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K90" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L90" s="15" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A91" s="14" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B91" s="17" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C91" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D91" s="9" t="s">
         <v>7</v>
@@ -5236,31 +5417,33 @@
         <v>9</v>
       </c>
       <c r="G91" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H91" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I91" s="9"/>
+      <c r="I91" s="9" t="s">
+        <v>19</v>
+      </c>
       <c r="J91" s="18" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K91" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L91" s="15" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A92" s="14" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B92" s="17" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C92" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D92" s="9" t="s">
         <v>7</v>
@@ -5272,31 +5455,33 @@
         <v>9</v>
       </c>
       <c r="G92" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H92" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I92" s="9"/>
+      <c r="I92" s="9" t="s">
+        <v>19</v>
+      </c>
       <c r="J92" s="18" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K92" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L92" s="15" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A93" s="14" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B93" s="17" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C93" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D93" s="9" t="s">
         <v>7</v>
@@ -5308,20 +5493,22 @@
         <v>9</v>
       </c>
       <c r="G93" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H93" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I93" s="9"/>
+      <c r="I93" s="9" t="s">
+        <v>19</v>
+      </c>
       <c r="J93" s="18" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K93" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L93" s="15" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.2">
